--- a/configTools/Luban/ConfigRoot/Datas/shopOld.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shopOld.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="shop_daily" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="fund" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="fund_reward" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="recharge" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="price" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="specials" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="fr" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="monthly" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="goods" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shop_daily" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fund" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fund_reward" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="price" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="specials" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fr" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monthly" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="goods" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'shop_daily'!$B$4:$M$1541</definedName>
@@ -1096,8 +1096,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="item|道具"/>
     </sheetNames>
@@ -2205,8 +2205,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总览"/>
       <sheetName val="全局资产数值框架"/>
@@ -2801,8 +2801,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="data"/>
       <sheetName val="价格档位"/>
@@ -2952,8 +2952,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="data"/>
       <sheetName val="价格档位"/>
@@ -3350,7 +3350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -65101,12 +65101,12 @@
   <autoFilter ref="B4:M1541"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -65348,12 +65348,12 @@
   <autoFilter ref="A4:H7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -67863,12 +67863,12 @@
   <autoFilter ref="A4:E94"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -68411,12 +68411,12 @@
   <autoFilter ref="A4:M13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -68656,12 +68656,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -69050,7 +69050,7 @@
   <autoFilter ref="A4:B19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -69253,7 +69253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -69663,7 +69663,7 @@
   <autoFilter ref="A4:L7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/configTools/Luban/ConfigRoot/Datas/shopOld.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shopOld.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shop_daily" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fund" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fund_reward" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="price" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="specials" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fr" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monthly" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="goods" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="shop_daily" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="fund" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="fund_reward" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="recharge" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="price" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="specials" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="fr" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="monthly" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="goods" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'shop_daily'!$B$4:$M$1541</definedName>
@@ -1096,8 +1096,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="item|道具"/>
     </sheetNames>
@@ -2205,8 +2205,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="总览"/>
       <sheetName val="全局资产数值框架"/>
@@ -2801,8 +2801,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="data"/>
       <sheetName val="价格档位"/>
@@ -2952,8 +2952,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="data"/>
       <sheetName val="价格档位"/>

--- a/configTools/Luban/ConfigRoot/Datas/shopOld.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/shopOld.xlsx
@@ -3350,7 +3350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -65101,12 +65101,12 @@
   <autoFilter ref="B4:M1541"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -65348,12 +65348,12 @@
   <autoFilter ref="A4:H7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -67863,12 +67863,12 @@
   <autoFilter ref="A4:E94"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -68411,12 +68411,12 @@
   <autoFilter ref="A4:M13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -68656,12 +68656,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -69050,7 +69050,7 @@
   <autoFilter ref="A4:B19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -69253,7 +69253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -69663,7 +69663,7 @@
   <autoFilter ref="A4:L7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
